--- a/child_mortality/admission.xlsx
+++ b/child_mortality/admission.xlsx
@@ -1,19 +1,20 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20406"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20409"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Carron  Muleya\Documents\Kingstone Demand Foecasting Using ML\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Carron  Muleya\Documents\Kingstone Demand Foecasting Using ML\child_mortality\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C88BB391-7C1C-4C27-8E8A-84A45A63D631}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A7B4715F-D9DF-4864-B464-A1B81BD2E253}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7545" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="15345" windowHeight="4470" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="TotalByGender" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -25,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="65" uniqueCount="32">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="81" uniqueCount="43">
   <si>
     <t>january</t>
   </si>
@@ -121,13 +122,46 @@
   </si>
   <si>
     <t>Diseases</t>
+  </si>
+  <si>
+    <t>Male</t>
+  </si>
+  <si>
+    <t>Female</t>
+  </si>
+  <si>
+    <t>Total Deaths</t>
+  </si>
+  <si>
+    <t xml:space="preserve">January </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Februray </t>
+  </si>
+  <si>
+    <t>March</t>
+  </si>
+  <si>
+    <t>April</t>
+  </si>
+  <si>
+    <t xml:space="preserve">May </t>
+  </si>
+  <si>
+    <t>July</t>
+  </si>
+  <si>
+    <t>September</t>
+  </si>
+  <si>
+    <t>Month</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -147,6 +181,14 @@
       <color theme="1"/>
       <name val="Times New Roman"/>
       <family val="1"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="2">
@@ -238,7 +280,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="16">
+  <cellXfs count="18">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -251,6 +293,8 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -545,8 +589,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:AK32"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A15" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="F22" sqref="A20:F22"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="E19" sqref="E19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -561,66 +605,66 @@
       <c r="A1" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="B1" s="13" t="s">
+      <c r="B1" s="15" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="13"/>
-      <c r="D1" s="14"/>
-      <c r="E1" s="15" t="s">
+      <c r="C1" s="15"/>
+      <c r="D1" s="16"/>
+      <c r="E1" s="17" t="s">
         <v>18</v>
       </c>
-      <c r="F1" s="12"/>
-      <c r="G1" s="12"/>
-      <c r="H1" s="12" t="s">
+      <c r="F1" s="14"/>
+      <c r="G1" s="14"/>
+      <c r="H1" s="14" t="s">
         <v>19</v>
       </c>
-      <c r="I1" s="12"/>
-      <c r="J1" s="12"/>
-      <c r="K1" s="12" t="s">
+      <c r="I1" s="14"/>
+      <c r="J1" s="14"/>
+      <c r="K1" s="14" t="s">
         <v>20</v>
       </c>
-      <c r="L1" s="12"/>
-      <c r="M1" s="12"/>
-      <c r="N1" s="12" t="s">
+      <c r="L1" s="14"/>
+      <c r="M1" s="14"/>
+      <c r="N1" s="14" t="s">
         <v>21</v>
       </c>
-      <c r="O1" s="12"/>
-      <c r="P1" s="12"/>
-      <c r="Q1" s="12" t="s">
+      <c r="O1" s="14"/>
+      <c r="P1" s="14"/>
+      <c r="Q1" s="14" t="s">
         <v>22</v>
       </c>
-      <c r="R1" s="12"/>
-      <c r="S1" s="12"/>
-      <c r="T1" s="12" t="s">
+      <c r="R1" s="14"/>
+      <c r="S1" s="14"/>
+      <c r="T1" s="14" t="s">
         <v>23</v>
       </c>
-      <c r="U1" s="12"/>
-      <c r="V1" s="12"/>
-      <c r="W1" s="12" t="s">
+      <c r="U1" s="14"/>
+      <c r="V1" s="14"/>
+      <c r="W1" s="14" t="s">
         <v>24</v>
       </c>
-      <c r="X1" s="12"/>
-      <c r="Y1" s="12"/>
-      <c r="Z1" s="12" t="s">
+      <c r="X1" s="14"/>
+      <c r="Y1" s="14"/>
+      <c r="Z1" s="14" t="s">
         <v>25</v>
       </c>
-      <c r="AA1" s="12"/>
-      <c r="AB1" s="12"/>
-      <c r="AC1" s="12" t="s">
+      <c r="AA1" s="14"/>
+      <c r="AB1" s="14"/>
+      <c r="AC1" s="14" t="s">
         <v>26</v>
       </c>
-      <c r="AD1" s="12"/>
-      <c r="AE1" s="12"/>
-      <c r="AF1" s="12" t="s">
+      <c r="AD1" s="14"/>
+      <c r="AE1" s="14"/>
+      <c r="AF1" s="14" t="s">
         <v>27</v>
       </c>
-      <c r="AG1" s="12"/>
-      <c r="AH1" s="12"/>
-      <c r="AI1" s="12" t="s">
+      <c r="AG1" s="14"/>
+      <c r="AH1" s="14"/>
+      <c r="AI1" s="14" t="s">
         <v>28</v>
       </c>
-      <c r="AJ1" s="12"/>
-      <c r="AK1" s="12"/>
+      <c r="AJ1" s="14"/>
+      <c r="AK1" s="14"/>
     </row>
     <row r="2" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A2" s="3"/>
@@ -2740,4 +2784,201 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E21511E9-A40F-47B1-AB04-A066612BB42B}">
+  <dimension ref="A1:D13"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="H7" sqref="H7"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1" s="13" t="s">
+        <v>42</v>
+      </c>
+      <c r="B1" s="13" t="s">
+        <v>32</v>
+      </c>
+      <c r="C1" s="13" t="s">
+        <v>33</v>
+      </c>
+      <c r="D1" s="13" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A2" s="13" t="s">
+        <v>35</v>
+      </c>
+      <c r="B2" s="12">
+        <v>421</v>
+      </c>
+      <c r="C2" s="12">
+        <v>447</v>
+      </c>
+      <c r="D2" s="12">
+        <v>868</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A3" s="13" t="s">
+        <v>36</v>
+      </c>
+      <c r="B3" s="12">
+        <v>351</v>
+      </c>
+      <c r="C3" s="12">
+        <v>419</v>
+      </c>
+      <c r="D3" s="12">
+        <v>770</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A4" s="13" t="s">
+        <v>37</v>
+      </c>
+      <c r="B4" s="12">
+        <v>450</v>
+      </c>
+      <c r="C4" s="12">
+        <v>438</v>
+      </c>
+      <c r="D4" s="12">
+        <v>888</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A5" s="13" t="s">
+        <v>38</v>
+      </c>
+      <c r="B5" s="12">
+        <v>492</v>
+      </c>
+      <c r="C5" s="12">
+        <v>377</v>
+      </c>
+      <c r="D5" s="12">
+        <v>869</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A6" s="13" t="s">
+        <v>39</v>
+      </c>
+      <c r="B6" s="12">
+        <v>413</v>
+      </c>
+      <c r="C6" s="12">
+        <v>468</v>
+      </c>
+      <c r="D6" s="12">
+        <v>881</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A7" s="13" t="s">
+        <v>22</v>
+      </c>
+      <c r="B7" s="12">
+        <v>444</v>
+      </c>
+      <c r="C7" s="12">
+        <v>434</v>
+      </c>
+      <c r="D7" s="12">
+        <v>878</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A8" s="13" t="s">
+        <v>40</v>
+      </c>
+      <c r="B8" s="12">
+        <v>441</v>
+      </c>
+      <c r="C8" s="12">
+        <v>422</v>
+      </c>
+      <c r="D8" s="12">
+        <v>863</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A9" s="13" t="s">
+        <v>24</v>
+      </c>
+      <c r="B9" s="12">
+        <v>486</v>
+      </c>
+      <c r="C9" s="12">
+        <v>410</v>
+      </c>
+      <c r="D9" s="12">
+        <v>896</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A10" s="13" t="s">
+        <v>41</v>
+      </c>
+      <c r="B10" s="12">
+        <v>431</v>
+      </c>
+      <c r="C10" s="12">
+        <v>482</v>
+      </c>
+      <c r="D10" s="12">
+        <v>913</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A11" s="13" t="s">
+        <v>26</v>
+      </c>
+      <c r="B11" s="12">
+        <v>422</v>
+      </c>
+      <c r="C11" s="12">
+        <v>456</v>
+      </c>
+      <c r="D11" s="12">
+        <v>878</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A12" s="13" t="s">
+        <v>27</v>
+      </c>
+      <c r="B12" s="12">
+        <v>445</v>
+      </c>
+      <c r="C12" s="12">
+        <v>441</v>
+      </c>
+      <c r="D12" s="12">
+        <v>886</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A13" s="13" t="s">
+        <v>28</v>
+      </c>
+      <c r="B13" s="12">
+        <v>448</v>
+      </c>
+      <c r="C13" s="12">
+        <v>445</v>
+      </c>
+      <c r="D13" s="12">
+        <v>893</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>